--- a/CE09OSPM/Omaha_Cal_Info_CE09OSPM_00002.xlsx
+++ b/CE09OSPM/Omaha_Cal_Info_CE09OSPM_00002.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12705" yWindow="-15" windowWidth="12510" windowHeight="12405" tabRatio="377"/>
+    <workbookView xWindow="12708" yWindow="-12" windowWidth="12516" windowHeight="12408" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,12 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$84</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$400</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
   <si>
     <t>Ref Des</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>CE09OSPM-SBS01-00-STCENG000</t>
-  </si>
-  <si>
-    <t>Complete</t>
   </si>
   <si>
     <t>CE09OSPM-00002</t>
@@ -834,27 +831,27 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.85546875"/>
-    <col min="2" max="2" width="39.42578125"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125"/>
-    <col min="7" max="7" width="18.7109375"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875"/>
-    <col min="10" max="10" width="12.7109375"/>
-    <col min="11" max="11" width="51.7109375"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="1026" width="8.7109375"/>
+    <col min="1" max="1" width="37.88671875"/>
+    <col min="2" max="2" width="39.44140625"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.44140625"/>
+    <col min="7" max="7" width="18.6640625"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875"/>
+    <col min="10" max="10" width="12.6640625"/>
+    <col min="11" max="11" width="51.6640625"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="1026" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5">
+    <row r="1" spans="1:13" ht="31.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,12 +886,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="15">
       <c r="A2" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="15">
         <v>2</v>
@@ -907,16 +904,16 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>44</v>
       </c>
       <c r="I2" s="5">
         <v>542</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="23">
@@ -933,9 +930,6 @@
       <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
     </row>
@@ -953,22 +947,22 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125"/>
-    <col min="8" max="8" width="11.85546875"/>
-    <col min="9" max="9" width="14.42578125"/>
-    <col min="10" max="10" width="13.42578125"/>
-    <col min="11" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625"/>
+    <col min="8" max="8" width="11.88671875"/>
+    <col min="9" max="9" width="14.44140625"/>
+    <col min="10" max="10" width="13.44140625"/>
+    <col min="11" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,7 +987,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="9">
         <v>2</v>
@@ -1013,7 +1007,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="9">
         <v>2</v>
@@ -1033,7 +1027,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="9">
         <v>2</v>
@@ -1053,7 +1047,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="9">
         <v>2</v>
@@ -1073,7 +1067,7 @@
         <v>34</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="9">
         <v>2</v>
@@ -1093,7 +1087,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="9">
         <v>2</v>
@@ -1113,7 +1107,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="9">
         <v>2</v>
@@ -1133,7 +1127,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="9">
         <v>2</v>
@@ -1161,7 +1155,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="9">
         <v>2</v>
@@ -1181,7 +1175,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="9">
         <v>2</v>
@@ -1206,10 +1200,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="9">
         <v>2</v>
@@ -1226,10 +1220,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="9">
         <v>2</v>
@@ -1257,7 +1251,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="9">
         <v>2</v>
@@ -1266,7 +1260,7 @@
         <v>1032</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="19">
         <v>1.08</v>
@@ -1277,7 +1271,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="9">
         <v>2</v>
@@ -1297,7 +1291,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="9">
         <v>2</v>
@@ -1317,7 +1311,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="9">
         <v>2</v>
@@ -1337,7 +1331,7 @@
         <v>36</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="9">
         <v>2</v>
@@ -1346,7 +1340,7 @@
         <v>1032</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="19">
         <v>3.9E-2</v>
@@ -1357,7 +1351,7 @@
         <v>36</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="9">
         <v>2</v>
@@ -1366,7 +1360,7 @@
         <v>1032</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="19">
         <v>700</v>
@@ -1377,7 +1371,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="9">
         <v>2</v>
@@ -1397,7 +1391,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="9">
         <v>2</v>
@@ -1417,7 +1411,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="9">
         <v>2</v>
@@ -1437,7 +1431,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="9">
         <v>2</v>
@@ -1446,7 +1440,7 @@
         <v>1032</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" s="19">
         <v>117</v>
@@ -1465,7 +1459,7 @@
         <v>37</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="9">
         <v>2</v>
@@ -1485,7 +1479,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="9">
         <v>2</v>
@@ -1508,47 +1502,47 @@
         <v>38</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="9">
         <v>2</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="9">
         <v>2</v>
       </c>
       <c r="D32" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="26" t="s">
         <v>52</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="9">
         <v>2</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/CE09OSPM/Omaha_Cal_Info_CE09OSPM_00002.xlsx
+++ b/CE09OSPM/Omaha_Cal_Info_CE09OSPM_00002.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="12708" yWindow="-12" windowWidth="12516" windowHeight="12408" tabRatio="377"/>
   </bookViews>
@@ -30,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$84</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$400</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -326,7 +331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,7 +434,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -444,9 +448,6 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -458,6 +459,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -537,6 +544,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -584,7 +594,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -619,7 +629,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -831,7 +841,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -887,26 +897,28 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="B2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="14">
         <v>2</v>
       </c>
       <c r="D2" s="4">
         <v>41920</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>0.79999999999999993</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="22" t="s">
+      <c r="F2" s="26">
+        <v>42100</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="18" t="s">
         <v>43</v>
       </c>
       <c r="I2" s="5">
@@ -916,22 +928,22 @@
         <v>40</v>
       </c>
       <c r="K2" s="6"/>
-      <c r="L2" s="23">
+      <c r="L2" s="19">
         <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
         <v>46.85295</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="19">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
         <v>-124.9663</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -943,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -978,7 +990,7 @@
       <c r="E1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1018,7 +1030,7 @@
       <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="20">
         <v>46.85295</v>
       </c>
     </row>
@@ -1038,7 +1050,7 @@
       <c r="E4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="20">
         <v>-124.9663</v>
       </c>
     </row>
@@ -1166,7 +1178,7 @@
       <c r="E11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="20">
         <v>46.85295</v>
       </c>
     </row>
@@ -1186,7 +1198,7 @@
       <c r="E12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="20">
         <v>-124.9663</v>
       </c>
     </row>
@@ -1196,7 +1208,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="24"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
@@ -1214,7 +1226,7 @@
       <c r="E14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="20">
         <v>46.85295</v>
       </c>
     </row>
@@ -1234,7 +1246,7 @@
       <c r="E15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="20">
         <v>-124.9663</v>
       </c>
     </row>
@@ -1244,7 +1256,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="8" t="s">
@@ -1259,10 +1271,10 @@
       <c r="D17" s="9">
         <v>1032</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="23">
         <v>1.08</v>
       </c>
     </row>
@@ -1282,7 +1294,7 @@
       <c r="E18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="24">
         <v>50</v>
       </c>
     </row>
@@ -1302,7 +1314,7 @@
       <c r="E19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="24">
         <v>50</v>
       </c>
     </row>
@@ -1322,7 +1334,7 @@
       <c r="E20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="24">
         <v>50</v>
       </c>
     </row>
@@ -1339,10 +1351,10 @@
       <c r="D21" s="9">
         <v>1032</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="23">
         <v>3.9E-2</v>
       </c>
     </row>
@@ -1359,10 +1371,10 @@
       <c r="D22" s="9">
         <v>1032</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="23">
         <v>700</v>
       </c>
     </row>
@@ -1382,7 +1394,7 @@
       <c r="E23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="24">
         <v>9.0800000000000006E-2</v>
       </c>
     </row>
@@ -1402,7 +1414,7 @@
       <c r="E24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="20">
         <v>1.21E-2</v>
       </c>
     </row>
@@ -1422,7 +1434,7 @@
       <c r="E25" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="25">
         <v>3.4819999999999999E-6</v>
       </c>
     </row>
@@ -1442,7 +1454,7 @@
       <c r="E26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="23">
         <v>117</v>
       </c>
     </row>
@@ -1452,7 +1464,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="12"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="8" t="s">
@@ -1490,7 +1502,7 @@
       <c r="E29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="12">
         <v>1.0000000000000001E-17</v>
       </c>
     </row>
@@ -1507,10 +1519,10 @@
       <c r="C31" s="9">
         <v>2</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1524,10 +1536,10 @@
       <c r="C32" s="9">
         <v>2</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1541,7 +1553,7 @@
       <c r="C33" s="9">
         <v>2</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="13" t="s">
         <v>41</v>
       </c>
     </row>

--- a/CE09OSPM/Omaha_Cal_Info_CE09OSPM_00002.xlsx
+++ b/CE09OSPM/Omaha_Cal_Info_CE09OSPM_00002.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12708" yWindow="-12" windowWidth="12516" windowHeight="12408" tabRatio="377"/>
+    <workbookView xWindow="12705" yWindow="-15" windowWidth="12510" windowHeight="12405" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$84</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$400</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -594,7 +589,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -629,7 +624,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -840,28 +835,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.88671875"/>
-    <col min="2" max="2" width="39.44140625"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.44140625"/>
-    <col min="7" max="7" width="18.6640625"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875"/>
-    <col min="10" max="10" width="12.6640625"/>
-    <col min="11" max="11" width="51.6640625"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="1026" width="8.6640625"/>
+    <col min="1" max="1" width="37.85546875"/>
+    <col min="2" max="2" width="39.42578125"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.42578125"/>
+    <col min="7" max="7" width="18.7109375"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875"/>
+    <col min="10" max="10" width="12.7109375"/>
+    <col min="11" max="11" width="51.7109375"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="1026" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.2">
+    <row r="1" spans="1:13" ht="31.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,7 +891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15">
+    <row r="2" spans="1:13">
       <c r="A2" s="14" t="s">
         <v>33</v>
       </c>
@@ -955,26 +950,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G39" sqref="G38:G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625"/>
-    <col min="8" max="8" width="11.88671875"/>
-    <col min="9" max="9" width="14.44140625"/>
-    <col min="10" max="10" width="13.44140625"/>
-    <col min="11" max="1025" width="8.6640625"/>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125"/>
+    <col min="8" max="8" width="11.85546875"/>
+    <col min="9" max="9" width="14.42578125"/>
+    <col min="10" max="10" width="13.42578125"/>
+    <col min="11" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1275,7 +1270,7 @@
         <v>44</v>
       </c>
       <c r="F17" s="23">
-        <v>1.08</v>
+        <v>1.0760000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1455,7 +1450,7 @@
         <v>47</v>
       </c>
       <c r="F26" s="23">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:7">

--- a/CE09OSPM/Omaha_Cal_Info_CE09OSPM_00002.xlsx
+++ b/CE09OSPM/Omaha_Cal_Info_CE09OSPM_00002.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
   <si>
     <t>Ref Des</t>
   </si>
@@ -217,6 +217,12 @@
       </rPr>
       <t>-VEL3DK000</t>
     </r>
+  </si>
+  <si>
+    <t>chi factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use adjusted Soc </t>
   </si>
 </sst>
 </file>
@@ -311,7 +317,7 @@
       <name val="DejaVu Sans Mono"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,12 +328,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCECFF"/>
         <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -457,7 +457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -836,7 +836,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G39" sqref="G38:G39"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -962,14 +962,14 @@
     <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="11.85546875"/>
     <col min="9" max="9" width="14.42578125"/>
     <col min="10" max="10" width="13.42578125"/>
     <col min="11" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,7 +989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>-862.68</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>46.85295</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>-124.9663</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="8" t="s">
         <v>34</v>
       </c>
@@ -1068,8 +1068,11 @@
       <c r="F5" s="11">
         <v>3.1838E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="8" t="s">
         <v>34</v>
       </c>
@@ -1089,7 +1092,7 @@
         <v>-2.8711000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
@@ -1109,7 +1112,7 @@
         <v>1.7857999999999999E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>34</v>
       </c>
@@ -1129,7 +1132,7 @@
         <v>-3.7651000000000002E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
         <v>34</v>
       </c>
@@ -1149,7 +1152,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1157,7 +1160,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="8" t="s">
         <v>35</v>
       </c>
@@ -1177,7 +1180,7 @@
         <v>46.85295</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>-124.9663</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1205,7 +1208,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="8" t="s">
         <v>53</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>46.85295</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="8" t="s">
         <v>53</v>
       </c>
@@ -1245,7 +1248,7 @@
         <v>-124.9663</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1271,6 +1274,9 @@
       </c>
       <c r="F17" s="23">
         <v>1.0760000000000001</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7">
